--- a/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
+++ b/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="231">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1878,6 +1878,27 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1899,27 +1920,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3366,10 +3366,10 @@
   <dimension ref="A1:W620"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="L10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="R15" sqref="R15"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3412,12 +3412,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="58"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="65"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3438,14 +3438,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="66" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="65"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3466,12 +3466,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="66" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3493,12 +3493,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="66" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="58"/>
+      <c r="D5" s="65"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3519,8 +3519,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3732,16 +3732,16 @@
       <c r="E11" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="55">
         <v>46000</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="56" t="s">
         <v>197</v>
       </c>
       <c r="J11" s="34" t="s">
@@ -3793,16 +3793,16 @@
       <c r="E12" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="55">
         <v>46000</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="56" t="s">
         <v>197</v>
       </c>
       <c r="J12" s="34" t="s">
@@ -3854,16 +3854,16 @@
       <c r="E13" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="55">
         <v>46000</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="H13" s="68" t="s">
+      <c r="H13" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="I13" s="68" t="s">
+      <c r="I13" s="56" t="s">
         <v>197</v>
       </c>
       <c r="J13" s="34" t="s">
@@ -3915,10 +3915,10 @@
       <c r="E14" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="55">
         <v>46000</v>
       </c>
-      <c r="G14" s="68" t="s">
+      <c r="G14" s="56" t="s">
         <v>206</v>
       </c>
       <c r="H14" s="33"/>
@@ -3926,7 +3926,9 @@
       <c r="J14" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="K14" s="34"/>
+      <c r="K14" s="34" t="s">
+        <v>141</v>
+      </c>
       <c r="L14" s="34"/>
       <c r="M14" s="34" t="s">
         <v>53</v>
@@ -3934,7 +3936,7 @@
       <c r="N14" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="O14" s="69" t="s">
+      <c r="O14" s="57" t="s">
         <v>208</v>
       </c>
       <c r="P14" s="34" t="s">
@@ -3946,7 +3948,7 @@
       <c r="R14" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="S14" s="69" t="s">
+      <c r="S14" s="57" t="s">
         <v>209</v>
       </c>
       <c r="T14" s="34"/>
@@ -3974,10 +3976,10 @@
       <c r="E15" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="55">
         <v>46000</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="56" t="s">
         <v>207</v>
       </c>
       <c r="H15" s="33"/>
@@ -3985,7 +3987,9 @@
       <c r="J15" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="K15" s="34"/>
+      <c r="K15" s="34" t="s">
+        <v>141</v>
+      </c>
       <c r="L15" s="34"/>
       <c r="M15" s="34" t="s">
         <v>53</v>
@@ -3993,7 +3997,7 @@
       <c r="N15" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="O15" s="69" t="s">
+      <c r="O15" s="57" t="s">
         <v>208</v>
       </c>
       <c r="P15" s="34" t="s">
@@ -4005,7 +4009,7 @@
       <c r="R15" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="S15" s="69" t="s">
+      <c r="S15" s="57" t="s">
         <v>209</v>
       </c>
       <c r="T15" s="34"/>
@@ -4812,16 +4816,16 @@
       <c r="E35" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="F35" s="67">
+      <c r="F35" s="55">
         <v>46000</v>
       </c>
-      <c r="G35" s="68" t="s">
+      <c r="G35" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="H35" s="68" t="s">
+      <c r="H35" s="56" t="s">
         <v>214</v>
       </c>
-      <c r="I35" s="68" t="s">
+      <c r="I35" s="56" t="s">
         <v>218</v>
       </c>
       <c r="J35" s="34" t="s">
@@ -4859,16 +4863,16 @@
       <c r="E36" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F36" s="67">
+      <c r="F36" s="55">
         <v>46000</v>
       </c>
-      <c r="G36" s="68" t="s">
+      <c r="G36" s="56" t="s">
         <v>211</v>
       </c>
-      <c r="H36" s="68" t="s">
+      <c r="H36" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="I36" s="68" t="s">
+      <c r="I36" s="56" t="s">
         <v>219</v>
       </c>
       <c r="J36" s="34" t="s">
@@ -4906,16 +4910,16 @@
       <c r="E37" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="F37" s="67">
+      <c r="F37" s="55">
         <v>46000</v>
       </c>
-      <c r="G37" s="68" t="s">
+      <c r="G37" s="56" t="s">
         <v>212</v>
       </c>
-      <c r="H37" s="68" t="s">
+      <c r="H37" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="I37" s="68" t="s">
+      <c r="I37" s="56" t="s">
         <v>220</v>
       </c>
       <c r="J37" s="34" t="s">
@@ -4953,16 +4957,16 @@
       <c r="E38" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="F38" s="67">
+      <c r="F38" s="55">
         <v>46000</v>
       </c>
-      <c r="G38" s="68" t="s">
+      <c r="G38" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="H38" s="68" t="s">
+      <c r="H38" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="I38" s="68" t="s">
+      <c r="I38" s="56" t="s">
         <v>221</v>
       </c>
       <c r="J38" s="34" t="s">
@@ -5779,16 +5783,16 @@
       <c r="E58" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="F58" s="70">
+      <c r="F58" s="58">
         <v>45666</v>
       </c>
-      <c r="G58" s="68" t="s">
+      <c r="G58" s="56" t="s">
         <v>222</v>
       </c>
-      <c r="H58" s="68" t="s">
+      <c r="H58" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="I58" s="68" t="s">
+      <c r="I58" s="56" t="s">
         <v>228</v>
       </c>
       <c r="J58" s="34" t="s">
@@ -5826,16 +5830,16 @@
       <c r="E59" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="F59" s="70">
+      <c r="F59" s="58">
         <v>45666</v>
       </c>
-      <c r="G59" s="72" t="s">
+      <c r="G59" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="H59" s="72" t="s">
+      <c r="H59" s="60" t="s">
         <v>226</v>
       </c>
-      <c r="I59" s="72" t="s">
+      <c r="I59" s="60" t="s">
         <v>229</v>
       </c>
       <c r="J59" s="42" t="s">
@@ -5873,16 +5877,16 @@
       <c r="E60" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="F60" s="71">
+      <c r="F60" s="59">
         <v>45667</v>
       </c>
-      <c r="G60" s="73" t="s">
+      <c r="G60" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="H60" s="73" t="s">
+      <c r="H60" s="61" t="s">
         <v>227</v>
       </c>
-      <c r="I60" s="73" t="s">
+      <c r="I60" s="61" t="s">
         <v>230</v>
       </c>
       <c r="J60" s="47" t="s">
@@ -12296,6 +12300,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -12305,15 +12318,6 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12575,6 +12579,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -12587,14 +12599,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
+++ b/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
@@ -454,11 +454,6 @@
     <t>VALIDAZIONE_CDA2_RAD_CT22_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
   </si>
   <si>
@@ -917,67 +912,71 @@
     <t>L'invio verrà riprovato una seconda volta a distanza di 30 secondi. In caso di ulteriore errore verrà rinviato successivamente.</t>
   </si>
   <si>
-    <t>2025-1-9T11:33:20+0100</t>
-  </si>
-  <si>
-    <t>2025-1-9T11:37:05+0100</t>
-  </si>
-  <si>
-    <t>2025-1-9T11:38:42+0100</t>
-  </si>
-  <si>
-    <t>2025-1-9T11:40:59+0100</t>
-  </si>
-  <si>
-    <t>0fcb8ca6234205b8</t>
-  </si>
-  <si>
-    <t>dbc89d1f511ae4b2</t>
-  </si>
-  <si>
-    <t>9e76eeea0157c487</t>
-  </si>
-  <si>
-    <t>7d3c91284f2c4e6b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.128765942c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.493dac3d6f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.14facce116^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.300e1181ab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-1-9T12:47:46+0100</t>
-  </si>
-  <si>
-    <t>2025-1-9T12:43:57+0100</t>
-  </si>
-  <si>
-    <t>2025-1-10T15:40:46+0100</t>
-  </si>
-  <si>
-    <t>e55d7c5f4eb04087</t>
-  </si>
-  <si>
-    <t>30197db020c752b8</t>
-  </si>
-  <si>
-    <t>bec0c04eebed81f8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.174800adfa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.7231a5e9dc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.2f4337c3ac^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-1-24T15:18:19+0100</t>
+  </si>
+  <si>
+    <t>3ae27738a10e225c</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ad2f884ac9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-1-24T15:23:13+0100</t>
+  </si>
+  <si>
+    <t>a595741342bf803d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.912e8c2a7a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2025-1-24T15:41:12+0100</t>
+  </si>
+  <si>
+    <t>1e33740c0f3b0111</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c972f0f646^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-1-24T15:42:32+0100</t>
+  </si>
+  <si>
+    <t>706c749f8e31203b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.bdbde9c147^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-1-24T15:44:17+0100</t>
+  </si>
+  <si>
+    <t>f91cb41cf6f03bd8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.f957ee9ded^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-1-24T15:45:58+0100</t>
+  </si>
+  <si>
+    <t>f34ac8ae09b0e227</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.c4ef8bc8db^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-1-24T15:59:36+0100</t>
+  </si>
+  <si>
+    <t>7293daff6c3c9336</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.aadd9b7d76^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -987,7 +986,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,6 +1104,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1138,7 +1145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1686,21 +1693,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="medium">
         <color auto="1"/>
@@ -1896,9 +1888,6 @@
     <xf numFmtId="164" fontId="16" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1920,6 +1909,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2217,7 +2209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2234,7 +2226,7 @@
     </row>
     <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
@@ -2244,22 +2236,22 @@
     </row>
     <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="300" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -2357,7 +2349,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3366,10 +3358,10 @@
   <dimension ref="A1:W620"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3412,12 +3404,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="65"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="64"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3438,14 +3430,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="65"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="64"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3466,12 +3458,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="73" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="65"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="64"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3493,12 +3485,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="65"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="64"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3519,8 +3511,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3619,7 +3611,7 @@
         <v>24</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M9" s="20" t="s">
         <v>25</v>
@@ -3634,10 +3626,10 @@
         <v>28</v>
       </c>
       <c r="Q9" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="R9" s="20" t="s">
         <v>133</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>134</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>29</v>
@@ -3675,13 +3667,13 @@
         <v>46000</v>
       </c>
       <c r="G10" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="I10" s="33" t="s">
         <v>196</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>197</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>53</v>
@@ -3689,25 +3681,25 @@
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="34" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P10" s="34" t="s">
         <v>53</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T10" s="34"/>
       <c r="U10" s="35"/>
@@ -3736,13 +3728,13 @@
         <v>46000</v>
       </c>
       <c r="G11" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="56" t="s">
         <v>200</v>
       </c>
-      <c r="H11" s="56" t="s">
-        <v>201</v>
-      </c>
       <c r="I11" s="56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J11" s="34" t="s">
         <v>53</v>
@@ -3750,25 +3742,25 @@
       <c r="K11" s="34"/>
       <c r="L11" s="34"/>
       <c r="M11" s="34" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="N11" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O11" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P11" s="34" t="s">
         <v>53</v>
       </c>
       <c r="Q11" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R11" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S11" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T11" s="34"/>
       <c r="U11" s="35"/>
@@ -3797,13 +3789,13 @@
         <v>46000</v>
       </c>
       <c r="G12" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="H12" s="56" t="s">
-        <v>203</v>
-      </c>
       <c r="I12" s="56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J12" s="34" t="s">
         <v>53</v>
@@ -3811,25 +3803,25 @@
       <c r="K12" s="34"/>
       <c r="L12" s="34"/>
       <c r="M12" s="34" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="N12" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O12" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P12" s="34" t="s">
         <v>53</v>
       </c>
       <c r="Q12" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R12" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S12" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T12" s="34"/>
       <c r="U12" s="35"/>
@@ -3858,13 +3850,13 @@
         <v>46000</v>
       </c>
       <c r="G13" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="H13" s="56" t="s">
-        <v>205</v>
-      </c>
       <c r="I13" s="56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J13" s="34" t="s">
         <v>53</v>
@@ -3872,25 +3864,25 @@
       <c r="K13" s="34"/>
       <c r="L13" s="34"/>
       <c r="M13" s="34" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O13" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P13" s="34" t="s">
         <v>53</v>
       </c>
       <c r="Q13" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R13" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S13" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T13" s="34"/>
       <c r="U13" s="35"/>
@@ -3913,21 +3905,21 @@
         <v>54</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F14" s="55">
         <v>46000</v>
       </c>
       <c r="G14" s="56" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="33"/>
       <c r="J14" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="34" t="s">
@@ -3937,7 +3929,7 @@
         <v>53</v>
       </c>
       <c r="O14" s="57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P14" s="34" t="s">
         <v>53</v>
@@ -3946,10 +3938,10 @@
         <v>53</v>
       </c>
       <c r="R14" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S14" s="57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T14" s="34"/>
       <c r="U14" s="35" t="s">
@@ -3974,21 +3966,21 @@
         <v>55</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F15" s="55">
         <v>46000</v>
       </c>
       <c r="G15" s="56" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H15" s="33"/>
       <c r="I15" s="33"/>
       <c r="J15" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K15" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="34" t="s">
@@ -3998,7 +3990,7 @@
         <v>53</v>
       </c>
       <c r="O15" s="57" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P15" s="34" t="s">
         <v>53</v>
@@ -4007,10 +3999,10 @@
         <v>53</v>
       </c>
       <c r="R15" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="S15" s="57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T15" s="34"/>
       <c r="U15" s="35" t="s">
@@ -4035,17 +4027,17 @@
         <v>56</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="33"/>
       <c r="H16" s="33"/>
       <c r="I16" s="33"/>
       <c r="J16" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L16" s="34"/>
       <c r="M16" s="34"/>
@@ -4076,17 +4068,17 @@
         <v>57</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="33"/>
       <c r="I17" s="33"/>
       <c r="J17" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="34"/>
@@ -4124,10 +4116,10 @@
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
       <c r="J18" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
@@ -4165,10 +4157,10 @@
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
       <c r="J19" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K19" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
@@ -4199,17 +4191,17 @@
         <v>62</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
       <c r="I20" s="33"/>
       <c r="J20" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K20" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
@@ -4240,17 +4232,17 @@
         <v>63</v>
       </c>
       <c r="E21" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="33"/>
       <c r="H21" s="33"/>
       <c r="I21" s="33"/>
       <c r="J21" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K21" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
@@ -4281,17 +4273,17 @@
         <v>64</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="33"/>
       <c r="H22" s="33"/>
       <c r="I22" s="33"/>
       <c r="J22" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
@@ -4322,17 +4314,17 @@
         <v>65</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
       <c r="J23" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K23" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
@@ -4370,10 +4362,10 @@
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K24" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
@@ -4411,10 +4403,10 @@
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
       <c r="J25" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K25" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
@@ -4445,17 +4437,17 @@
         <v>70</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F26" s="32"/>
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
       <c r="I26" s="33"/>
       <c r="J26" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K26" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
@@ -4486,17 +4478,17 @@
         <v>71</v>
       </c>
       <c r="E27" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F27" s="32"/>
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K27" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
@@ -4527,17 +4519,17 @@
         <v>72</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K28" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
@@ -4568,17 +4560,17 @@
         <v>73</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F29" s="32"/>
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
       <c r="J29" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K29" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
@@ -4616,10 +4608,10 @@
       <c r="H30" s="33"/>
       <c r="I30" s="33"/>
       <c r="J30" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K30" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L30" s="34"/>
       <c r="M30" s="34"/>
@@ -4657,10 +4649,10 @@
       <c r="H31" s="33"/>
       <c r="I31" s="33"/>
       <c r="J31" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L31" s="34"/>
       <c r="M31" s="34"/>
@@ -4691,17 +4683,17 @@
         <v>78</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F32" s="32"/>
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
       <c r="I32" s="33"/>
       <c r="J32" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K32" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
@@ -4732,17 +4724,17 @@
         <v>79</v>
       </c>
       <c r="E33" s="31" t="s">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
       <c r="J33" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K33" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L33" s="34"/>
       <c r="M33" s="34"/>
@@ -4770,20 +4762,20 @@
         <v>38</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
       <c r="J34" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K34" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="34"/>
@@ -4811,19 +4803,19 @@
         <v>48</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F35" s="55">
-        <v>46000</v>
+        <v>45681</v>
       </c>
       <c r="G35" s="56" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H35" s="56" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="I35" s="56" t="s">
         <v>218</v>
@@ -4858,22 +4850,22 @@
         <v>48</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F36" s="55">
-        <v>46000</v>
+        <v>45681</v>
       </c>
       <c r="G36" s="56" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H36" s="56" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="I36" s="56" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J36" s="34" t="s">
         <v>53</v>
@@ -4905,22 +4897,22 @@
         <v>48</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F37" s="55">
-        <v>46000</v>
+        <v>45681</v>
       </c>
       <c r="G37" s="56" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="H37" s="56" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="I37" s="56" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J37" s="34" t="s">
         <v>53</v>
@@ -4952,22 +4944,22 @@
         <v>48</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F38" s="55">
-        <v>46000</v>
+        <v>45681</v>
       </c>
       <c r="G38" s="56" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H38" s="56" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="I38" s="56" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="J38" s="34" t="s">
         <v>53</v>
@@ -4999,20 +4991,20 @@
         <v>48</v>
       </c>
       <c r="D39" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="31" t="s">
         <v>86</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>87</v>
       </c>
       <c r="F39" s="32"/>
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
       <c r="J39" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L39" s="34"/>
       <c r="M39" s="34"/>
@@ -5040,20 +5032,20 @@
         <v>48</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F40" s="32"/>
       <c r="G40" s="33"/>
       <c r="H40" s="33"/>
       <c r="I40" s="33"/>
       <c r="J40" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L40" s="34"/>
       <c r="M40" s="34"/>
@@ -5081,20 +5073,20 @@
         <v>48</v>
       </c>
       <c r="D41" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E41" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F41" s="32"/>
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
       <c r="I41" s="33"/>
       <c r="J41" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L41" s="34"/>
       <c r="M41" s="34"/>
@@ -5122,20 +5114,20 @@
         <v>48</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F42" s="32"/>
       <c r="G42" s="33"/>
       <c r="H42" s="33"/>
       <c r="I42" s="33"/>
       <c r="J42" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L42" s="34"/>
       <c r="M42" s="34"/>
@@ -5163,20 +5155,20 @@
         <v>48</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E43" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F43" s="32"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
       <c r="I43" s="33"/>
       <c r="J43" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L43" s="34"/>
       <c r="M43" s="34"/>
@@ -5204,20 +5196,20 @@
         <v>48</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F44" s="32"/>
       <c r="G44" s="33"/>
       <c r="H44" s="33"/>
       <c r="I44" s="33"/>
       <c r="J44" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L44" s="34"/>
       <c r="M44" s="34"/>
@@ -5245,20 +5237,20 @@
         <v>48</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E45" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F45" s="32"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
       <c r="I45" s="33"/>
       <c r="J45" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K45" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L45" s="34"/>
       <c r="M45" s="34"/>
@@ -5286,20 +5278,20 @@
         <v>48</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E46" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F46" s="32"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
       <c r="I46" s="33"/>
       <c r="J46" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K46" s="34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L46" s="34"/>
       <c r="M46" s="34"/>
@@ -5327,20 +5319,20 @@
         <v>48</v>
       </c>
       <c r="D47" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="31" t="s">
         <v>95</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>96</v>
       </c>
       <c r="F47" s="32"/>
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
       <c r="I47" s="33"/>
       <c r="J47" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K47" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L47" s="34"/>
       <c r="M47" s="34"/>
@@ -5368,20 +5360,20 @@
         <v>48</v>
       </c>
       <c r="D48" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="31" t="s">
         <v>97</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>98</v>
       </c>
       <c r="F48" s="32"/>
       <c r="G48" s="33"/>
       <c r="H48" s="33"/>
       <c r="I48" s="33"/>
       <c r="J48" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K48" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L48" s="34"/>
       <c r="M48" s="34"/>
@@ -5409,20 +5401,20 @@
         <v>48</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F49" s="32"/>
       <c r="G49" s="33"/>
       <c r="H49" s="33"/>
       <c r="I49" s="33"/>
       <c r="J49" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K49" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L49" s="34"/>
       <c r="M49" s="34"/>
@@ -5450,20 +5442,20 @@
         <v>48</v>
       </c>
       <c r="D50" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F50" s="32"/>
       <c r="G50" s="33"/>
       <c r="H50" s="33"/>
       <c r="I50" s="33"/>
       <c r="J50" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K50" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L50" s="34"/>
       <c r="M50" s="34"/>
@@ -5491,20 +5483,20 @@
         <v>48</v>
       </c>
       <c r="D51" s="30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F51" s="32"/>
       <c r="G51" s="33"/>
       <c r="H51" s="33"/>
       <c r="I51" s="33"/>
       <c r="J51" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L51" s="34"/>
       <c r="M51" s="34"/>
@@ -5532,20 +5524,20 @@
         <v>48</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F52" s="32"/>
       <c r="G52" s="33"/>
       <c r="H52" s="33"/>
       <c r="I52" s="33"/>
       <c r="J52" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K52" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L52" s="34"/>
       <c r="M52" s="34"/>
@@ -5573,20 +5565,20 @@
         <v>48</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F53" s="32"/>
       <c r="G53" s="33"/>
       <c r="H53" s="33"/>
       <c r="I53" s="33"/>
       <c r="J53" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K53" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L53" s="34"/>
       <c r="M53" s="34"/>
@@ -5614,20 +5606,20 @@
         <v>48</v>
       </c>
       <c r="D54" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
       <c r="I54" s="33"/>
       <c r="J54" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K54" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L54" s="34"/>
       <c r="M54" s="34"/>
@@ -5655,20 +5647,20 @@
         <v>48</v>
       </c>
       <c r="D55" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F55" s="32"/>
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
       <c r="I55" s="33"/>
       <c r="J55" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K55" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L55" s="34"/>
       <c r="M55" s="34"/>
@@ -5696,20 +5688,20 @@
         <v>48</v>
       </c>
       <c r="D56" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F56" s="32"/>
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
       <c r="I56" s="33"/>
       <c r="J56" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K56" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L56" s="34"/>
       <c r="M56" s="34"/>
@@ -5737,20 +5729,20 @@
         <v>48</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F57" s="32"/>
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
       <c r="I57" s="33"/>
       <c r="J57" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K57" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L57" s="34"/>
       <c r="M57" s="34"/>
@@ -5778,22 +5770,22 @@
         <v>48</v>
       </c>
       <c r="D58" s="30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F58" s="58">
-        <v>45666</v>
+        <v>45681</v>
       </c>
       <c r="G58" s="56" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="H58" s="56" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="I58" s="56" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J58" s="34" t="s">
         <v>53</v>
@@ -5828,19 +5820,19 @@
         <v>39</v>
       </c>
       <c r="E59" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F59" s="58">
-        <v>45666</v>
-      </c>
-      <c r="G59" s="60" t="s">
-        <v>223</v>
-      </c>
-      <c r="H59" s="60" t="s">
-        <v>226</v>
-      </c>
-      <c r="I59" s="60" t="s">
-        <v>229</v>
+        <v>45681</v>
+      </c>
+      <c r="G59" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="H59" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="I59" s="73" t="s">
+        <v>211</v>
       </c>
       <c r="J59" s="42" t="s">
         <v>53</v>
@@ -5875,19 +5867,19 @@
         <v>40</v>
       </c>
       <c r="E60" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="F60" s="59">
-        <v>45667</v>
-      </c>
-      <c r="G60" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="H60" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="I60" s="61" t="s">
-        <v>230</v>
+        <v>153</v>
+      </c>
+      <c r="F60" s="58">
+        <v>45681</v>
+      </c>
+      <c r="G60" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="H60" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="I60" s="60" t="s">
+        <v>214</v>
       </c>
       <c r="J60" s="47" t="s">
         <v>53</v>
@@ -10032,11 +10024,11 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
@@ -10073,42 +10065,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -10138,22 +10130,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="F1" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10161,13 +10153,13 @@
         <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10175,13 +10167,13 @@
         <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10189,13 +10181,13 @@
         <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="12">
         <v>446.447</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10203,13 +10195,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>117</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10217,13 +10209,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -10231,13 +10223,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>121</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -10245,13 +10237,13 @@
         <v>48</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>123</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -10259,41 +10251,41 @@
         <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>189</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11275,7 +11267,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>53</v>
@@ -11283,10 +11275,10 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12300,15 +12292,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -12318,6 +12301,15 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12579,14 +12571,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -12599,6 +12583,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
+++ b/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE_NEW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE_NEW\Accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0869F139-069B-4F92-A910-21BC8D7777CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8AFD3C-442F-4E66-A095-26C6099B659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="466">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1795,6 +1795,12 @@
   </si>
   <si>
     <t>Timeout Error</t>
+  </si>
+  <si>
+    <t>La procedura non si blocca. L'operazione viene ritentata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La procedura non si blocca. L'operazione viene ritentata </t>
   </si>
 </sst>
 </file>
@@ -3900,7 +3906,7 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G30" sqref="A30:XFD30"/>
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3912,7 +3918,9 @@
     <col min="5" max="5" width="104.85546875" customWidth="1"/>
     <col min="6" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="10" width="27.140625" customWidth="1"/>
-    <col min="11" max="18" width="36.42578125" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" customWidth="1"/>
+    <col min="12" max="12" width="33.140625" customWidth="1"/>
+    <col min="13" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="19" width="27.140625" customWidth="1"/>
     <col min="20" max="20" width="33.140625" customWidth="1"/>
     <col min="21" max="21" width="36.42578125" customWidth="1"/>
@@ -5050,8 +5058,12 @@
       <c r="J30" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
+      <c r="K30" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="L30" s="38" t="s">
+        <v>465</v>
+      </c>
       <c r="M30" s="38" t="s">
         <v>228</v>
       </c>
@@ -5105,8 +5117,12 @@
       <c r="J31" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
+      <c r="K31" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="L31" s="38" t="s">
+        <v>464</v>
+      </c>
       <c r="M31" s="38" t="s">
         <v>228</v>
       </c>
@@ -17592,6 +17608,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17849,42 +17886,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17907,9 +17912,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
+++ b/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE_NEW\Accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8AFD3C-442F-4E66-A095-26C6099B659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96EA597-E93A-4ABC-8905-A92C466153CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1758,42 +1758,6 @@
     <t>2025-11-13T14:37:36+01:00</t>
   </si>
   <si>
-    <t>4e12ee7be59bc541b6fbcdcf35282daf</t>
-  </si>
-  <si>
-    <t>2025-11-13T15:12:04+01:00</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.69d245aeb5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>06da9de253b904fabdd9f68609388ae7</t>
-  </si>
-  <si>
-    <t>2025-11-13T15:12:46+01:00</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.6c464c077e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>5345e1f05c3b09b6ed96685c190d17d7</t>
-  </si>
-  <si>
-    <t>2025-11-13T15:43:39+01:00</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.36e183800c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>82bd9b0a5ed708184d2739ab0c035b1a</t>
-  </si>
-  <si>
-    <t>2025-11-13T15:44:28+01:00</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.3358feb41a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Timeout Error</t>
   </si>
   <si>
@@ -1801,6 +1765,42 @@
   </si>
   <si>
     <t xml:space="preserve">La procedura non si blocca. L'operazione viene ritentata </t>
+  </si>
+  <si>
+    <t>2025-11-20T10:49:00+01:00</t>
+  </si>
+  <si>
+    <t>9e3c1956e06e40050ada5b4032d63a10</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ad1c91d36f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-20T10:50:47+01:00</t>
+  </si>
+  <si>
+    <t>ff8bc59c44c9ef939cb9151feac05118</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.2ad30f2a24^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-20T12:00:13+01:00</t>
+  </si>
+  <si>
+    <t>de1a559cc89d03862cae99c2f3779237</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.fdbf260ec0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>b86e9d658dbc4ca0c0c2ca252acd7651</t>
+  </si>
+  <si>
+    <t>2025-11-20T12:01:34+01:00</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.8dff995882^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3905,8 +3905,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W752"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" topLeftCell="E116" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5062,7 +5062,7 @@
         <v>237</v>
       </c>
       <c r="L30" s="38" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="M30" s="38" t="s">
         <v>228</v>
@@ -5071,7 +5071,7 @@
         <v>228</v>
       </c>
       <c r="O30" s="38" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="P30" s="38" t="s">
         <v>64</v>
@@ -5121,7 +5121,7 @@
         <v>237</v>
       </c>
       <c r="L31" s="38" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="M31" s="38" t="s">
         <v>228</v>
@@ -5130,7 +5130,7 @@
         <v>228</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="P31" s="38" t="s">
         <v>64</v>
@@ -10258,16 +10258,16 @@
         <v>384</v>
       </c>
       <c r="F166" s="37">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="G166" s="37" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="H166" s="37" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="I166" s="42" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="J166" s="48" t="s">
         <v>64</v>
@@ -10304,17 +10304,17 @@
       <c r="E167" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="F167" s="37">
-        <v>45974</v>
+      <c r="F167" s="46">
+        <v>45981</v>
       </c>
       <c r="G167" s="37" t="s">
-        <v>461</v>
-      </c>
-      <c r="H167" s="37" t="s">
-        <v>460</v>
+        <v>464</v>
+      </c>
+      <c r="H167" s="46" t="s">
+        <v>463</v>
       </c>
       <c r="I167" s="42" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="J167" s="38" t="s">
         <v>64</v>
@@ -11104,16 +11104,16 @@
         <v>415</v>
       </c>
       <c r="F188" s="37">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="G188" s="37" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H188" s="37" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="I188" s="50" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="J188" s="38" t="s">
         <v>64</v>
@@ -11151,16 +11151,16 @@
         <v>420</v>
       </c>
       <c r="F189" s="37">
-        <v>45974</v>
+        <v>45981</v>
       </c>
       <c r="G189" s="37" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="H189" s="37" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="I189" s="42" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="J189" s="38" t="s">
         <v>64</v>
@@ -17608,27 +17608,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17886,10 +17865,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17912,20 +17923,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
+++ b/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE_NEW\Accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96EA597-E93A-4ABC-8905-A92C466153CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2716B9E7-300D-4188-A5F9-8DD6213007EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-180" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1776,15 +1776,6 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.ad1c91d36f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-11-20T10:50:47+01:00</t>
-  </si>
-  <si>
-    <t>ff8bc59c44c9ef939cb9151feac05118</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.2ad30f2a24^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2025-11-20T12:00:13+01:00</t>
   </si>
   <si>
@@ -1794,13 +1785,22 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.fdbf260ec0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>b86e9d658dbc4ca0c0c2ca252acd7651</t>
-  </si>
-  <si>
-    <t>2025-11-20T12:01:34+01:00</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.8dff995882^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-11-20T17:22:24+01:00</t>
+  </si>
+  <si>
+    <t>be52eb009a15a931b49e85a21c9efbb5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.75dc985670^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-11-20T17:24:20+01:00</t>
+  </si>
+  <si>
+    <t>9343294f13b5299afc93e18a6b0d6540</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.566817af80^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -10261,13 +10261,13 @@
         <v>45981</v>
       </c>
       <c r="G166" s="37" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H166" s="37" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I166" s="42" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J166" s="48" t="s">
         <v>64</v>
@@ -10308,13 +10308,13 @@
         <v>45981</v>
       </c>
       <c r="G167" s="37" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H167" s="46" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I167" s="42" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J167" s="38" t="s">
         <v>64</v>
@@ -11154,13 +11154,13 @@
         <v>45981</v>
       </c>
       <c r="G189" s="37" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="H189" s="37" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="I189" s="42" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="J189" s="38" t="s">
         <v>64</v>
@@ -17608,6 +17608,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17865,42 +17886,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17923,9 +17912,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
+++ b/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE_NEW\Accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2716B9E7-300D-4188-A5F9-8DD6213007EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ACF28A-6F1A-49FF-97EB-61C70ACBAF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1785,22 +1785,22 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.fdbf260ec0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-11-20T17:22:24+01:00</t>
-  </si>
-  <si>
-    <t>be52eb009a15a931b49e85a21c9efbb5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.75dc985670^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-11-20T17:24:20+01:00</t>
-  </si>
-  <si>
-    <t>9343294f13b5299afc93e18a6b0d6540</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.566817af80^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-12-01T10:42:52+01:00</t>
+  </si>
+  <si>
+    <t>bbaaea7d57f6de353c783721ac2be5fb</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0b040d7fab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-12-01T10:45:24+01:00</t>
+  </si>
+  <si>
+    <t>b075810be26a23e57299b4a9f29a734b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.973e85660d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2297,7 +2297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2454,6 +2454,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3906,7 +3909,7 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E116" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I189" sqref="I189"/>
+      <selection activeCell="I195" sqref="I194:I195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10304,17 +10307,17 @@
       <c r="E167" s="43" t="s">
         <v>385</v>
       </c>
-      <c r="F167" s="46">
-        <v>45981</v>
+      <c r="F167" s="37">
+        <v>45992</v>
       </c>
       <c r="G167" s="37" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H167" s="46" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="I167" s="42" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="J167" s="38" t="s">
         <v>64</v>
@@ -11151,16 +11154,16 @@
         <v>420</v>
       </c>
       <c r="F189" s="37">
-        <v>45981</v>
+        <v>45992</v>
       </c>
       <c r="G189" s="37" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H189" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="I189" s="42" t="s">
-        <v>465</v>
+        <v>461</v>
+      </c>
+      <c r="I189" s="50" t="s">
+        <v>462</v>
       </c>
       <c r="J189" s="38" t="s">
         <v>64</v>
@@ -11324,7 +11327,7 @@
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
-      <c r="I194" s="6"/>
+      <c r="I194" s="63"/>
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
@@ -11344,7 +11347,7 @@
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
-      <c r="I195" s="6"/>
+      <c r="I195" s="63"/>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
@@ -17608,27 +17611,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17886,10 +17868,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17912,20 +17926,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
+++ b/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE_NEW\Accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30ACF28A-6F1A-49FF-97EB-61C70ACBAF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC7E41F-D35A-44F5-9E80-5F30F7CC87B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1785,22 +1785,22 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.fdbf260ec0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-12-01T10:42:52+01:00</t>
-  </si>
-  <si>
-    <t>bbaaea7d57f6de353c783721ac2be5fb</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0b040d7fab^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-12-01T10:45:24+01:00</t>
-  </si>
-  <si>
-    <t>b075810be26a23e57299b4a9f29a734b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.973e85660d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-12-05T10:10:09+01:00</t>
+  </si>
+  <si>
+    <t>c458d253949cfb7bafb7872234d34d89</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.bb8c80464c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-12-05T10:11:58+01:00</t>
+  </si>
+  <si>
+    <t>c4e9744231a1ebfc4762f6b7df84c770</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0077bdfcf7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2433,6 +2433,9 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2454,9 +2457,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3908,8 +3908,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E116" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I195" sqref="I194:I195"/>
+    <sheetView tabSelected="1" topLeftCell="F116" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I191" sqref="I191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3953,12 +3953,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="55"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3979,14 +3979,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="63" t="s">
         <v>437</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4007,12 +4007,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="62" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="63" t="s">
         <v>438</v>
       </c>
-      <c r="D4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4034,12 +4034,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="63" t="s">
         <v>439</v>
       </c>
-      <c r="D5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4060,8 +4060,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -10308,16 +10308,16 @@
         <v>385</v>
       </c>
       <c r="F167" s="37">
-        <v>45992</v>
+        <v>45996</v>
       </c>
       <c r="G167" s="37" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H167" s="46" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I167" s="42" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J167" s="38" t="s">
         <v>64</v>
@@ -11154,16 +11154,16 @@
         <v>420</v>
       </c>
       <c r="F189" s="37">
-        <v>45992</v>
+        <v>45996</v>
       </c>
       <c r="G189" s="37" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="H189" s="37" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="I189" s="50" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="J189" s="38" t="s">
         <v>64</v>
@@ -11327,7 +11327,7 @@
       <c r="F194" s="6"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
-      <c r="I194" s="63"/>
+      <c r="I194" s="51"/>
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
       <c r="L194" s="7"/>
@@ -11347,7 +11347,7 @@
       <c r="F195" s="6"/>
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
-      <c r="I195" s="63"/>
+      <c r="I195" s="51"/>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
       <c r="L195" s="7"/>
@@ -17611,6 +17611,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17868,42 +17889,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17926,9 +17915,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
+++ b/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE_NEW\Accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC7E41F-D35A-44F5-9E80-5F30F7CC87B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503FAA4A-8AD1-4320-B787-66317F2ED53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1794,13 +1794,13 @@
     <t>2.16.840.1.113883.2.9.2.120.4.4.2149fb78666c205ac20b9bd2d882af037f0819429c691196eaa8054488c56c20.bb8c80464c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2025-12-05T10:11:58+01:00</t>
-  </si>
-  <si>
-    <t>c4e9744231a1ebfc4762f6b7df84c770</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.0077bdfcf7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-12-05T18:01:15+01:00</t>
+  </si>
+  <si>
+    <t>68cdc884edb24aa43bb4794e7e258209</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.8fe46b71d98546dc779f4a7f4859b056b254bbe56b59baa550333b2c46441c87.1f182adc2c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -3908,8 +3908,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F116" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I191" sqref="I191"/>
+    <sheetView tabSelected="1" topLeftCell="E116" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I189" sqref="I189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17611,27 +17611,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17889,10 +17868,42 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17915,20 +17926,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
+++ b/GATEWAY/A1#111#AMBULATORIMISERICORDIAXX/Ambulatori_della_Misericordia/HSG6/23/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FSE_NEW\Accreditamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{503FAA4A-8AD1-4320-B787-66317F2ED53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCE39E3-81A7-43A7-AC6E-A72D84CD39EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28620" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -3908,8 +3908,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W752"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E116" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I189" sqref="I189"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5059,7 +5059,7 @@
       <c r="H30" s="37"/>
       <c r="I30" s="42"/>
       <c r="J30" s="38" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="K30" s="38" t="s">
         <v>237</v>
@@ -5118,7 +5118,7 @@
       <c r="H31" s="37"/>
       <c r="I31" s="42"/>
       <c r="J31" s="38" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="K31" s="38" t="s">
         <v>237</v>
@@ -17611,6 +17611,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -17868,42 +17889,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17926,9 +17915,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
